--- a/файл.xlsx
+++ b/файл.xlsx
@@ -331,10 +331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -351,7 +351,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/файл.xlsx
+++ b/файл.xlsx
@@ -331,10 +331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -354,6 +354,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/файл.xlsx
+++ b/файл.xlsx
@@ -334,7 +334,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -356,7 +356,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/файл.xlsx
+++ b/файл.xlsx
@@ -356,7 +356,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/файл.xlsx
+++ b/файл.xlsx
@@ -356,7 +356,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/файл.xlsx
+++ b/файл.xlsx
@@ -356,7 +356,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/файл.xlsx
+++ b/файл.xlsx
@@ -16,6 +16,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>лзщз</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -333,15 +341,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
